--- a/Data/Conical culley row/Xavi 1.xlsx
+++ b/Data/Conical culley row/Xavi 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\Remo polea excentrica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\Conical culley row\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -16043,6 +16043,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="498576864"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>

--- a/Data/Conical culley row/Xavi 1.xlsx
+++ b/Data/Conical culley row/Xavi 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\Conical culley row\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\Remo polea excentrica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16043,7 +16043,6 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="498576864"/>
-        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
